--- a/public/uploads/student.xlsx
+++ b/public/uploads/student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\schoolzoid testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\gitzoid2\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114FE28F-4AF0-4EBA-9BEB-81D093387884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68160FE-5F6C-4ED1-9596-C6C52A883723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>busk</t>
   </si>
   <si>
-    <t>11A</t>
-  </si>
-  <si>
     <t>class1</t>
   </si>
   <si>
@@ -117,12 +114,6 @@
     <t>uid</t>
   </si>
   <si>
-    <t>12B</t>
-  </si>
-  <si>
-    <t>10A</t>
-  </si>
-  <si>
     <t>katejohns@gmail.com</t>
   </si>
   <si>
@@ -238,6 +229,15 @@
   </si>
   <si>
     <t>st4.webp</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>2B</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -637,12 +637,12 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -654,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3">
         <v>44336</v>
@@ -666,21 +666,21 @@
         <v>44899004</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
         <v>44289</v>
@@ -704,21 +704,21 @@
         <v>44647889</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -730,7 +730,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
         <v>42117</v>
@@ -742,21 +742,21 @@
         <v>44900957</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
         <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -768,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
         <v>42868</v>
@@ -780,33 +780,33 @@
         <v>44879938</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3">
         <v>44336</v>
@@ -818,33 +818,33 @@
         <v>44899004</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
         <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3">
         <v>44289</v>
@@ -856,33 +856,33 @@
         <v>44647889</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>42117</v>
@@ -894,33 +894,33 @@
         <v>44900957</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>42868</v>
@@ -932,33 +932,33 @@
         <v>44879938</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
         <v>42868</v>
@@ -970,33 +970,33 @@
         <v>44879938</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
         <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
         <v>42868</v>
@@ -1008,16 +1008,16 @@
         <v>44879938</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
         <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/student.xlsx
+++ b/public/uploads/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\gitzoid2\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68160FE-5F6C-4ED1-9596-C6C52A883723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C17AF66-C6C5-4FF9-A6F7-F761B109A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>2B</t>
+  </si>
+  <si>
+    <t>Dr Madzivanyika</t>
+  </si>
+  <si>
+    <t>Mrs Thabani</t>
+  </si>
+  <si>
+    <t>PineWood</t>
   </si>
 </sst>
 </file>
@@ -586,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,9 +609,11 @@
     <col min="10" max="10" width="22.85546875" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -640,7 +651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -678,7 +689,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -716,7 +727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -754,7 +765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -792,7 +803,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -830,7 +841,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -868,7 +879,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -905,8 +916,11 @@
       <c r="L8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>712801046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -943,8 +957,14 @@
       <c r="L9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -982,7 +1002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1018,6 +1038,11 @@
       </c>
       <c r="L11" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
